--- a/biology/Zoologie/Boiga/Boiga.xlsx
+++ b/biology/Zoologie/Boiga/Boiga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boiga est un genre de serpents de la famille des Colubridae[1]. Les 34 espèces regroupées dans ce genre sont communément appelées Boiga.
-Ce sont des couleuvres à mode de vie le plus souvent arboricole qui vivent principalement dans les forêts tropicales. Elles sont venimeuses avec une dentition opisthoglyphe[2], mais leur morsure est généralement bénigne. Jusqu'à présent, aucun cas de décès par envenimation de Boiga n'a été enregistrée. Elles sont donc généralement considérées comme peu ou pas dangereuses pour l'homme. Cependant, comme tous les serpents venimeux, elles sont classées comme dangereuses du point de vue de la législation française sur la détention des espèces en captivité[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boiga est un genre de serpents de la famille des Colubridae. Les 34 espèces regroupées dans ce genre sont communément appelées Boiga.
+Ce sont des couleuvres à mode de vie le plus souvent arboricole qui vivent principalement dans les forêts tropicales. Elles sont venimeuses avec une dentition opisthoglyphe, mais leur morsure est généralement bénigne. Jusqu'à présent, aucun cas de décès par envenimation de Boiga n'a été enregistrée. Elles sont donc généralement considérées comme peu ou pas dangereuses pour l'homme. Cependant, comme tous les serpents venimeux, elles sont classées comme dangereuses du point de vue de la législation française sur la détention des espèces en captivité
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Australie.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre possèdent des glandes de Duvernoy qui produisent un liquide dont la composition se situe entre le venin et la salive. Le stockage des sécrétions dans les glandes est très réduit et aucun muscle n'est directement associé à ces glandes. Leur mode d'injection n'est pas très efficace. Malgré tout, les activités enzymatiques de ces sécrétions sont multiples (immobilisation de la proie, aide à la digestion...)[4].
-Certains auteurs considèrent cependant que les espèces du genre Boiga possèdent non pas des glandes de Duvernoy mais de réelles glandes venimeuses, qui toutefois ne présentent pas les caractères évolués observés chez les serpents venimeux au sens strict du terme (absence de tissus de stockage de venin et de muscles aidant à l'« injection » proprement dite)[4].
-Le venin des boigas présente une activité phospholipasique importante (les phospholipases sont des enzymes agissant sur les phospholipides, constituants essentiels des membranes) et d'autres activités enzymatiques peu ou moyennement dangereuses. Par ailleurs, pour l'espèce Boiga dendrophila, ce venin a également une activité hémorragique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre possèdent des glandes de Duvernoy qui produisent un liquide dont la composition se situe entre le venin et la salive. Le stockage des sécrétions dans les glandes est très réduit et aucun muscle n'est directement associé à ces glandes. Leur mode d'injection n'est pas très efficace. Malgré tout, les activités enzymatiques de ces sécrétions sont multiples (immobilisation de la proie, aide à la digestion...).
+Certains auteurs considèrent cependant que les espèces du genre Boiga possèdent non pas des glandes de Duvernoy mais de réelles glandes venimeuses, qui toutefois ne présentent pas les caractères évolués observés chez les serpents venimeux au sens strict du terme (absence de tissus de stockage de venin et de muscles aidant à l'« injection » proprement dite).
+Le venin des boigas présente une activité phospholipasique importante (les phospholipases sont des enzymes agissant sur les phospholipides, constituants essentiels des membranes) et d'autres activités enzymatiques peu ou moyennement dangereuses. Par ailleurs, pour l'espèce Boiga dendrophila, ce venin a également une activité hémorragique.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 juillet 2013)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 juillet 2013) :
 Boiga andamanensis (Wall, 1909)
 Boiga angulata (Peters, 1861)
 Boiga barnesii (Günther, 1869)
@@ -641,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fitzinger, 1826 : Neue classification der reptilien nach ihren natürlichen verwandtschaften. Nebst einer verwandtschafts-tafel und einem verzeichnisse der reptilien-sammlung des K. K. zoologischen museum's zu Wien, p. 1-67 (texte intégral).</t>
         </is>
